--- a/Code/Results/Cases/Case_3_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.612765588848049</v>
+        <v>1.158182694426159</v>
       </c>
       <c r="C2">
-        <v>0.4567644634920782</v>
+        <v>0.339459061613951</v>
       </c>
       <c r="D2">
-        <v>0.0949080210981279</v>
+        <v>0.2219658837373615</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5244013884067655</v>
+        <v>1.255498208774078</v>
       </c>
       <c r="G2">
-        <v>0.3069892224388298</v>
+        <v>0.6524449674027863</v>
       </c>
       <c r="H2">
-        <v>0.2795229195146689</v>
+        <v>0.7760300657686301</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09141045923834845</v>
+        <v>0.2335198683620625</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2143173963114648</v>
+        <v>0.3310972822870113</v>
       </c>
       <c r="M2">
-        <v>0.4616269527742389</v>
+        <v>0.2914151296881684</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.184341522569341</v>
+        <v>2.848292395402837</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.273756286555738</v>
+        <v>1.051963321756546</v>
       </c>
       <c r="C3">
-        <v>0.4254156377475624</v>
+        <v>0.3291491866946217</v>
       </c>
       <c r="D3">
-        <v>0.09137977811995768</v>
+        <v>0.2220636002734437</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5209297488923497</v>
+        <v>1.266306239975094</v>
       </c>
       <c r="G3">
-        <v>0.302346843946161</v>
+        <v>0.6589094181134953</v>
       </c>
       <c r="H3">
-        <v>0.2840529101003071</v>
+        <v>0.7834690126521906</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09512115244718444</v>
+        <v>0.2357153974068122</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1956564850379294</v>
+        <v>0.3270628312532722</v>
       </c>
       <c r="M3">
-        <v>0.4031606325343802</v>
+        <v>0.27392787821897</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.183586280757069</v>
+        <v>2.877285259570826</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.065697460296462</v>
+        <v>0.9866901134113846</v>
       </c>
       <c r="C4">
-        <v>0.4062599328205607</v>
+        <v>0.3228437193578202</v>
       </c>
       <c r="D4">
-        <v>0.08929890615905833</v>
+        <v>0.2221918684999054</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5200851613156132</v>
+        <v>1.273683932259544</v>
       </c>
       <c r="G4">
-        <v>0.3004923075307815</v>
+        <v>0.6633787005981162</v>
       </c>
       <c r="H4">
-        <v>0.2874511083923323</v>
+        <v>0.7884179818569805</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0975166415572648</v>
+        <v>0.2371419203373524</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1843260123754789</v>
+        <v>0.324680761034557</v>
       </c>
       <c r="M4">
-        <v>0.3673258356121849</v>
+        <v>0.2632220308190938</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.186514976932514</v>
+        <v>2.896935745553932</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.980912565763617</v>
+        <v>0.9600790786992093</v>
       </c>
       <c r="C5">
-        <v>0.3984749864678179</v>
+        <v>0.320280701021872</v>
       </c>
       <c r="D5">
-        <v>0.08847181414693495</v>
+        <v>0.2222613602220136</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5200517933441233</v>
+        <v>1.276876875030744</v>
       </c>
       <c r="G5">
-        <v>0.2999752033009315</v>
+        <v>0.6653255951242869</v>
       </c>
       <c r="H5">
-        <v>0.2889857683560848</v>
+        <v>0.7905306749387364</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09852186054490808</v>
+        <v>0.2377429962928801</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1797387702021211</v>
+        <v>0.3237340992758391</v>
       </c>
       <c r="M5">
-        <v>0.3527346194955996</v>
+        <v>0.258867545416912</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.188525539937586</v>
+        <v>2.905408164926527</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.966833503380485</v>
+        <v>0.9556596886456532</v>
       </c>
       <c r="C6">
-        <v>0.3971835209067507</v>
+        <v>0.3198555148613593</v>
       </c>
       <c r="D6">
-        <v>0.08833571981619315</v>
+        <v>0.2222739409972547</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5200646603212391</v>
+        <v>1.277418323634912</v>
       </c>
       <c r="G6">
-        <v>0.2999034164842911</v>
+        <v>0.6656564592904601</v>
       </c>
       <c r="H6">
-        <v>0.2892495006901399</v>
+        <v>0.7908872820732284</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09869051855055044</v>
+        <v>0.2378439985270582</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1789788182069074</v>
+        <v>0.3235783635068259</v>
       </c>
       <c r="M6">
-        <v>0.3503123492219729</v>
+        <v>0.2581449937991067</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.188907721727631</v>
+        <v>2.906843063854964</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.06455404768451</v>
+        <v>0.9863312723885542</v>
       </c>
       <c r="C7">
-        <v>0.406154859335075</v>
+        <v>0.3228091268817792</v>
       </c>
       <c r="D7">
-        <v>0.08928766795602172</v>
+        <v>0.2221927358875817</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5200834693876573</v>
+        <v>1.273726238363167</v>
       </c>
       <c r="G7">
-        <v>0.3004843826656085</v>
+        <v>0.6634044486115513</v>
       </c>
       <c r="H7">
-        <v>0.287471205281669</v>
+        <v>0.788446085839162</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09753008124736606</v>
+        <v>0.2371499466295841</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1842640282717056</v>
+        <v>0.3246678964568943</v>
       </c>
       <c r="M7">
-        <v>0.3671290112355976</v>
+        <v>0.2631632709138856</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.186538830049884</v>
+        <v>2.897048126328997</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.495841249382863</v>
+        <v>1.121570599767608</v>
       </c>
       <c r="C8">
-        <v>0.4459348304434627</v>
+        <v>0.3358992166601524</v>
       </c>
       <c r="D8">
-        <v>0.09367336035182205</v>
+        <v>0.2219854392261738</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5229293536336002</v>
+        <v>1.259070923315313</v>
       </c>
       <c r="G8">
-        <v>0.3051745676262456</v>
+        <v>0.6545700427549122</v>
       </c>
       <c r="H8">
-        <v>0.28095363358333</v>
+        <v>0.7785158712093505</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09266534849049535</v>
+        <v>0.2342606189641447</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2078554165228184</v>
+        <v>0.3296865465042771</v>
       </c>
       <c r="M8">
-        <v>0.4414518564664789</v>
+        <v>0.2853792067719567</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.183354876261347</v>
+        <v>2.857905309046501</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.343492837379074</v>
+        <v>1.386273960168012</v>
       </c>
       <c r="C9">
-        <v>0.5247859066338378</v>
+        <v>0.3617556779333029</v>
       </c>
       <c r="D9">
-        <v>0.1029816697132659</v>
+        <v>0.2221183787989958</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5393294735492518</v>
+        <v>1.236215368041869</v>
       </c>
       <c r="G9">
-        <v>0.322833053014115</v>
+        <v>0.6412196067032809</v>
       </c>
       <c r="H9">
-        <v>0.2733138193527154</v>
+        <v>0.7620676390600494</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08407398693768187</v>
+        <v>0.2292159318383931</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2552279223814793</v>
+        <v>0.3402773441994498</v>
       </c>
       <c r="M9">
-        <v>0.5879181981851787</v>
+        <v>0.3291810491859337</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.205732206788568</v>
+        <v>2.795824855126057</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.969194245719621</v>
+        <v>1.580369910084755</v>
       </c>
       <c r="C10">
-        <v>0.5833994296106084</v>
+        <v>0.3808546300785736</v>
       </c>
       <c r="D10">
-        <v>0.1102963269001478</v>
+        <v>0.2225421095002105</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.558864684545803</v>
+        <v>1.223010564959736</v>
       </c>
       <c r="G10">
-        <v>0.3417845695199873</v>
+        <v>0.6338420701466134</v>
       </c>
       <c r="H10">
-        <v>0.2711974599131253</v>
+        <v>0.7518250896088148</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07836775312941491</v>
+        <v>0.2258865391454581</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2908586979943522</v>
+        <v>0.3485090662048407</v>
       </c>
       <c r="M10">
-        <v>0.6962934338491635</v>
+        <v>0.361492752882846</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.242118803044235</v>
+        <v>2.759176799068086</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.254908059504828</v>
+        <v>1.668571470719542</v>
       </c>
       <c r="C11">
-        <v>0.6102532088996782</v>
+        <v>0.389563118399991</v>
       </c>
       <c r="D11">
-        <v>0.1137377205109189</v>
+        <v>0.2228050979172664</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5695872315192005</v>
+        <v>1.217782421092792</v>
       </c>
       <c r="G11">
-        <v>0.3518977296372015</v>
+        <v>0.6310155496214946</v>
       </c>
       <c r="H11">
-        <v>0.2710795991388864</v>
+        <v>0.7475650238031335</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07590991121601753</v>
+        <v>0.2244533778432984</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.307283228077992</v>
+        <v>0.3523505282265802</v>
       </c>
       <c r="M11">
-        <v>0.7458416678668058</v>
+        <v>0.376217852059419</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.263593129115947</v>
+        <v>2.744453844133204</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.363293023571657</v>
+        <v>1.701955981466256</v>
       </c>
       <c r="C12">
-        <v>0.6204529667193128</v>
+        <v>0.3928634797169934</v>
       </c>
       <c r="D12">
-        <v>0.1150581780925961</v>
+        <v>0.2229147322895955</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5739302763989542</v>
+        <v>1.215914654314631</v>
       </c>
       <c r="G12">
-        <v>0.3559591428229254</v>
+        <v>0.630021513030897</v>
       </c>
       <c r="H12">
-        <v>0.2711641285062854</v>
+        <v>0.7460092403944429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07499961991456416</v>
+        <v>0.2239223546319664</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3135369464817188</v>
+        <v>0.353818987807287</v>
       </c>
       <c r="M12">
-        <v>0.7646468217386797</v>
+        <v>0.3817973581640786</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.272485348410498</v>
+        <v>2.739159075542602</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.339941266489177</v>
+        <v>1.694766751690736</v>
       </c>
       <c r="C13">
-        <v>0.6182548377894648</v>
+        <v>0.3921525744593737</v>
       </c>
       <c r="D13">
-        <v>0.1147730106906124</v>
+        <v>0.2228906745906656</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5729820429487944</v>
+        <v>1.216311928835715</v>
       </c>
       <c r="G13">
-        <v>0.3550738497190338</v>
+        <v>0.6302322004337668</v>
       </c>
       <c r="H13">
-        <v>0.2711400515103009</v>
+        <v>0.7463417529903325</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07519474835245354</v>
+        <v>0.2240362006661893</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3121885284713528</v>
+        <v>0.3535021180586995</v>
       </c>
       <c r="M13">
-        <v>0.760594801718554</v>
+        <v>0.3805955647862689</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.270535557459596</v>
+        <v>2.74028691866306</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.263820903826456</v>
+        <v>1.671318356898894</v>
       </c>
       <c r="C14">
-        <v>0.6110917107243949</v>
+        <v>0.3898345896240869</v>
       </c>
       <c r="D14">
-        <v>0.1138460037754498</v>
+        <v>0.2228139165612291</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5699387605228239</v>
+        <v>1.217626513629213</v>
       </c>
       <c r="G14">
-        <v>0.3522271165626734</v>
+        <v>0.630932239473907</v>
       </c>
       <c r="H14">
-        <v>0.2710839190882837</v>
+        <v>0.7474358780256267</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07583460776563022</v>
+        <v>0.2244094561999379</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3077970234454739</v>
+        <v>0.3524710638819641</v>
       </c>
       <c r="M14">
-        <v>0.7473878911142577</v>
+        <v>0.3766768146700699</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.264309144808465</v>
+        <v>2.744012617018967</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.21722102319427</v>
+        <v>1.656953458436533</v>
       </c>
       <c r="C15">
-        <v>0.6067082090115434</v>
+        <v>0.3884150935668345</v>
       </c>
       <c r="D15">
-        <v>0.1132804627117565</v>
+        <v>0.2227682068204402</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5681120458441669</v>
+        <v>1.218446323644962</v>
       </c>
       <c r="G15">
-        <v>0.3505141256846684</v>
+        <v>0.6313709754027172</v>
       </c>
       <c r="H15">
-        <v>0.2710665932518026</v>
+        <v>0.7481135374920456</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07622922056842185</v>
+        <v>0.224639606964498</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3051116357784593</v>
+        <v>0.3518413040142292</v>
       </c>
       <c r="M15">
-        <v>0.7393039942890951</v>
+        <v>0.3742769032667113</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.260595929358203</v>
+        <v>2.746331252784131</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.950546919688861</v>
+        <v>1.574603671474506</v>
       </c>
       <c r="C16">
-        <v>0.5816485891643595</v>
+        <v>0.3802858947844072</v>
       </c>
       <c r="D16">
-        <v>0.1100737913224705</v>
+        <v>0.2225263313038965</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5582024504192091</v>
+        <v>1.22336791017306</v>
       </c>
       <c r="G16">
-        <v>0.3411551208957775</v>
+        <v>0.634037459309198</v>
       </c>
       <c r="H16">
-        <v>0.271222807464909</v>
+        <v>0.7521115293675393</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07853120550405635</v>
+        <v>0.22598183572015</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2897899174979557</v>
+        <v>0.34825995372573</v>
       </c>
       <c r="M16">
-        <v>0.6930608862013941</v>
+        <v>0.3605309325053554</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.240818863401728</v>
+        <v>2.760178213035772</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.787252254072712</v>
+        <v>1.524059301582213</v>
       </c>
       <c r="C17">
-        <v>0.5663264174439746</v>
+        <v>0.3753038953992416</v>
       </c>
       <c r="D17">
-        <v>0.1081363991347644</v>
+        <v>0.2223958987960017</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5526063417920568</v>
+        <v>1.226586631394341</v>
       </c>
       <c r="G17">
-        <v>0.3358077209695836</v>
+        <v>0.6358090045470988</v>
       </c>
       <c r="H17">
-        <v>0.2715403313808764</v>
+        <v>0.7546664359591659</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0799791487749193</v>
+        <v>0.2268260821925292</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2804479480816013</v>
+        <v>0.3460876070470391</v>
       </c>
       <c r="M17">
-        <v>0.6647603005995038</v>
+        <v>0.3521047167528479</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.2299832269712</v>
+        <v>2.769172138208035</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.693428725419267</v>
+        <v>1.494978822044857</v>
       </c>
       <c r="C18">
-        <v>0.557531188024825</v>
+        <v>0.3724403058801613</v>
       </c>
       <c r="D18">
-        <v>0.1070327281936869</v>
+        <v>0.2223274911091977</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5495592238825466</v>
+        <v>1.228511256194594</v>
       </c>
       <c r="G18">
-        <v>0.3328713773292904</v>
+        <v>0.6368777858072718</v>
       </c>
       <c r="H18">
-        <v>0.27180199873672</v>
+        <v>0.7561735373211462</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08082491394407398</v>
+        <v>0.2273193330454415</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2750948214437727</v>
+        <v>0.3448472512776846</v>
       </c>
       <c r="M18">
-        <v>0.6485054468801934</v>
+        <v>0.3472606810894163</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.224210777803677</v>
+        <v>2.774528583017855</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.661677678485376</v>
+        <v>1.485131240314388</v>
       </c>
       <c r="C19">
-        <v>0.5545562095974788</v>
+        <v>0.3714710825329917</v>
       </c>
       <c r="D19">
-        <v>0.1066608496714991</v>
+        <v>0.2223054669512621</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5485564485157894</v>
+        <v>1.22917548977378</v>
       </c>
       <c r="G19">
-        <v>0.3319006069013852</v>
+        <v>0.6372482112699629</v>
       </c>
       <c r="H19">
-        <v>0.2719039439039435</v>
+        <v>0.75669027182375</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08111348131242302</v>
+        <v>0.227487656008778</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2732857119049612</v>
+        <v>0.344428858868028</v>
       </c>
       <c r="M19">
-        <v>0.6430055694198415</v>
+        <v>0.3456210142830045</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.222333771287566</v>
+        <v>2.776373668760939</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.804624725349697</v>
+        <v>1.529440750729009</v>
       </c>
       <c r="C20">
-        <v>0.5679556348877952</v>
+        <v>0.3758340405010756</v>
       </c>
       <c r="D20">
-        <v>0.1083415276650044</v>
+        <v>0.2224090994553762</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5531841642673427</v>
+        <v>1.226236406380693</v>
       </c>
       <c r="G20">
-        <v>0.3363624185389824</v>
+        <v>0.6356152616331912</v>
       </c>
       <c r="H20">
-        <v>0.2714982965681401</v>
+        <v>0.7543905717895143</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07982366858226086</v>
+        <v>0.2267354178142202</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2814403121319771</v>
+        <v>0.3463179141289601</v>
       </c>
       <c r="M20">
-        <v>0.6677705299421675</v>
+        <v>0.3530014455801123</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.231088728797062</v>
+        <v>2.768195738412714</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.286173804429666</v>
+        <v>1.678206155849352</v>
       </c>
       <c r="C21">
-        <v>0.6131948295103768</v>
+        <v>0.3905153682950413</v>
       </c>
       <c r="D21">
-        <v>0.1141178118834745</v>
+        <v>0.2228361900197626</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5708248205901043</v>
+        <v>1.217237347851693</v>
       </c>
       <c r="G21">
-        <v>0.3530568376579311</v>
+        <v>0.6307245489005737</v>
       </c>
       <c r="H21">
-        <v>0.2710968374839382</v>
+        <v>0.7471129489480575</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07564610581581732</v>
+        <v>0.2242995050687497</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3090859638671191</v>
+        <v>0.3527735365790647</v>
       </c>
       <c r="M21">
-        <v>0.7512658767873361</v>
+        <v>0.377827756303617</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.266116920546324</v>
+        <v>2.742910674071936</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.602028075884448</v>
+        <v>1.775341630647233</v>
       </c>
       <c r="C22">
-        <v>0.6429426755308327</v>
+        <v>0.4001257628733583</v>
       </c>
       <c r="D22">
-        <v>0.1179941049444722</v>
+        <v>0.2231738518958082</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.584011059236424</v>
+        <v>1.212008881156024</v>
       </c>
       <c r="G22">
-        <v>0.3653274308446584</v>
+        <v>0.627973022630556</v>
       </c>
       <c r="H22">
-        <v>0.2715912452762979</v>
+        <v>0.7426912321786148</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07303527493818862</v>
+        <v>0.2227755883878295</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.327354365062746</v>
+        <v>0.3570729223556981</v>
       </c>
       <c r="M22">
-        <v>0.806085013720228</v>
+        <v>0.3940730173904328</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.293468811958348</v>
+        <v>2.72802050445793</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.433334250648898</v>
+        <v>1.723507625034927</v>
       </c>
       <c r="C23">
-        <v>0.627047873569694</v>
+        <v>0.3949952032470776</v>
       </c>
       <c r="D23">
-        <v>0.1159156877981857</v>
+        <v>0.2229882969876087</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5768152079415998</v>
+        <v>1.214739659047268</v>
       </c>
       <c r="G23">
-        <v>0.3586479627534942</v>
+        <v>0.6294008103695461</v>
       </c>
       <c r="H23">
-        <v>0.2712554544490757</v>
+        <v>0.745020570540774</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07441758586897151</v>
+        <v>0.2235827076644412</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.317584774029271</v>
+        <v>0.3547709612455634</v>
       </c>
       <c r="M23">
-        <v>0.7768017838329584</v>
+        <v>0.3854009187726035</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.278444286988076</v>
+        <v>2.735817955674719</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.796770457023399</v>
+        <v>1.527007865470011</v>
       </c>
       <c r="C24">
-        <v>0.5672190232948822</v>
+        <v>0.375594359923582</v>
       </c>
       <c r="D24">
-        <v>0.1082487574723103</v>
+        <v>0.2224031109389699</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5529224021135519</v>
+        <v>1.226394512173705</v>
       </c>
       <c r="G24">
-        <v>0.3361112113805547</v>
+        <v>0.6357026961471206</v>
       </c>
       <c r="H24">
-        <v>0.2715170546439509</v>
+        <v>0.754515170828185</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0798939197233981</v>
+        <v>0.2267763826249567</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2809916094542046</v>
+        <v>0.3462137656386375</v>
       </c>
       <c r="M24">
-        <v>0.6664095573830693</v>
+        <v>0.3525960334910749</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.230587511585469</v>
+        <v>2.76863659028561</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.113801908358937</v>
+        <v>1.314726232788644</v>
       </c>
       <c r="C25">
-        <v>0.5033478402933156</v>
+        <v>0.3547420373204204</v>
       </c>
       <c r="D25">
-        <v>0.1003833166318842</v>
+        <v>0.2220249536966818</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5336457562052743</v>
+        <v>1.241768484169654</v>
       </c>
       <c r="G25">
-        <v>0.3170684689160126</v>
+        <v>0.6444049468326227</v>
       </c>
       <c r="H25">
-        <v>0.2747940996027083</v>
+        <v>0.7661937021451166</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08629389070546978</v>
+        <v>0.2305143296117862</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2422787291792332</v>
+        <v>0.3373326736925151</v>
       </c>
       <c r="M25">
-        <v>0.5481856989945371</v>
+        <v>0.3173075963218679</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.196365606515727</v>
+        <v>2.811046364548801</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_219/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_219/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.158182694426159</v>
+        <v>2.612765588847992</v>
       </c>
       <c r="C2">
-        <v>0.339459061613951</v>
+        <v>0.456764463492334</v>
       </c>
       <c r="D2">
-        <v>0.2219658837373615</v>
+        <v>0.09490802109801422</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.255498208774078</v>
+        <v>0.5244013884067513</v>
       </c>
       <c r="G2">
-        <v>0.6524449674027863</v>
+        <v>0.3069892224388084</v>
       </c>
       <c r="H2">
-        <v>0.7760300657686301</v>
+        <v>0.2795229195146689</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2335198683620625</v>
+        <v>0.09141045923837332</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3310972822870113</v>
+        <v>0.2143173963114506</v>
       </c>
       <c r="M2">
-        <v>0.2914151296881684</v>
+        <v>0.4616269527742247</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.848292395402837</v>
+        <v>1.184341522569383</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051963321756546</v>
+        <v>2.273756286555738</v>
       </c>
       <c r="C3">
-        <v>0.3291491866946217</v>
+        <v>0.4254156377470792</v>
       </c>
       <c r="D3">
-        <v>0.2220636002734437</v>
+        <v>0.09137977812006426</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.266306239975094</v>
+        <v>0.5209297488923497</v>
       </c>
       <c r="G3">
-        <v>0.6589094181134953</v>
+        <v>0.3023468439461112</v>
       </c>
       <c r="H3">
-        <v>0.7834690126521906</v>
+        <v>0.284052910100435</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2357153974068122</v>
+        <v>0.09512115244719865</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3270628312532722</v>
+        <v>0.1956564850380076</v>
       </c>
       <c r="M3">
-        <v>0.27392787821897</v>
+        <v>0.4031606325343873</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.877285259570826</v>
+        <v>1.183586280757012</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9866901134113846</v>
+        <v>2.065697460296292</v>
       </c>
       <c r="C4">
-        <v>0.3228437193578202</v>
+        <v>0.4062599328203618</v>
       </c>
       <c r="D4">
-        <v>0.2221918684999054</v>
+        <v>0.08929890615922176</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.273683932259544</v>
+        <v>0.520085161315599</v>
       </c>
       <c r="G4">
-        <v>0.6633787005981162</v>
+        <v>0.3004923075307886</v>
       </c>
       <c r="H4">
-        <v>0.7884179818569805</v>
+        <v>0.2874511083923323</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2371419203373524</v>
+        <v>0.09751664155735185</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.324680761034557</v>
+        <v>0.1843260123755428</v>
       </c>
       <c r="M4">
-        <v>0.2632220308190938</v>
+        <v>0.367325835612192</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.896935745553932</v>
+        <v>1.186514976932514</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9600790786992093</v>
+        <v>1.980912565763617</v>
       </c>
       <c r="C5">
-        <v>0.320280701021872</v>
+        <v>0.3984749864675621</v>
       </c>
       <c r="D5">
-        <v>0.2222613602220136</v>
+        <v>0.08847181414693495</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.276876875030744</v>
+        <v>0.5200517933441091</v>
       </c>
       <c r="G5">
-        <v>0.6653255951242869</v>
+        <v>0.2999752033009884</v>
       </c>
       <c r="H5">
-        <v>0.7905306749387364</v>
+        <v>0.2889857683560777</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2377429962928801</v>
+        <v>0.09852186054480949</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3237340992758391</v>
+        <v>0.1797387702020643</v>
       </c>
       <c r="M5">
-        <v>0.258867545416912</v>
+        <v>0.3527346194955996</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.905408164926527</v>
+        <v>1.188525539937601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9556596886456532</v>
+        <v>1.966833503380371</v>
       </c>
       <c r="C6">
-        <v>0.3198555148613593</v>
+        <v>0.3971835209065091</v>
       </c>
       <c r="D6">
-        <v>0.2222739409972547</v>
+        <v>0.08833571981622157</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.277418323634912</v>
+        <v>0.5200646603212462</v>
       </c>
       <c r="G6">
-        <v>0.6656564592904601</v>
+        <v>0.2999034164844119</v>
       </c>
       <c r="H6">
-        <v>0.7908872820732284</v>
+        <v>0.2892495006901399</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2378439985270582</v>
+        <v>0.09869051855056821</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3235783635068259</v>
+        <v>0.1789788182069145</v>
       </c>
       <c r="M6">
-        <v>0.2581449937991067</v>
+        <v>0.3503123492219729</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.906843063854964</v>
+        <v>1.188907721727588</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9863312723885542</v>
+        <v>2.064554047684396</v>
       </c>
       <c r="C7">
-        <v>0.3228091268817792</v>
+        <v>0.4061548593347055</v>
       </c>
       <c r="D7">
-        <v>0.2221927358875817</v>
+        <v>0.08928766795585119</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.273726238363167</v>
+        <v>0.520083469387643</v>
       </c>
       <c r="G7">
-        <v>0.6634044486115513</v>
+        <v>0.3004843826656085</v>
       </c>
       <c r="H7">
-        <v>0.788446085839162</v>
+        <v>0.287471205281669</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2371499466295841</v>
+        <v>0.09753008124726126</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3246678964568943</v>
+        <v>0.184264028271734</v>
       </c>
       <c r="M7">
-        <v>0.2631632709138856</v>
+        <v>0.3671290112356118</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.897048126328997</v>
+        <v>1.18653883004994</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.121570599767608</v>
+        <v>2.495841249383034</v>
       </c>
       <c r="C8">
-        <v>0.3358992166601524</v>
+        <v>0.4459348304434343</v>
       </c>
       <c r="D8">
-        <v>0.2219854392261738</v>
+        <v>0.09367336035204232</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.259070923315313</v>
+        <v>0.5229293536336002</v>
       </c>
       <c r="G8">
-        <v>0.6545700427549122</v>
+        <v>0.3051745676262456</v>
       </c>
       <c r="H8">
-        <v>0.7785158712093505</v>
+        <v>0.2809536335833229</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2342606189641447</v>
+        <v>0.09266534849044561</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3296865465042771</v>
+        <v>0.2078554165228326</v>
       </c>
       <c r="M8">
-        <v>0.2853792067719567</v>
+        <v>0.441451856466486</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.857905309046501</v>
+        <v>1.183354876261362</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.386273960168012</v>
+        <v>3.343492837379188</v>
       </c>
       <c r="C9">
-        <v>0.3617556779333029</v>
+        <v>0.5247859066338947</v>
       </c>
       <c r="D9">
-        <v>0.2221183787989958</v>
+        <v>0.1029816697130812</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.236215368041869</v>
+        <v>0.539329473549266</v>
       </c>
       <c r="G9">
-        <v>0.6412196067032809</v>
+        <v>0.3228330530142287</v>
       </c>
       <c r="H9">
-        <v>0.7620676390600494</v>
+        <v>0.2733138193527154</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2292159318383931</v>
+        <v>0.0840739869377316</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3402773441994498</v>
+        <v>0.2552279223814082</v>
       </c>
       <c r="M9">
-        <v>0.3291810491859337</v>
+        <v>0.5879181981851787</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.795824855126057</v>
+        <v>1.20573220678861</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.580369910084755</v>
+        <v>3.969194245719677</v>
       </c>
       <c r="C10">
-        <v>0.3808546300785736</v>
+        <v>0.583399429610381</v>
       </c>
       <c r="D10">
-        <v>0.2225421095002105</v>
+        <v>0.1102963269001123</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.223010564959736</v>
+        <v>0.5588646845457887</v>
       </c>
       <c r="G10">
-        <v>0.6338420701466134</v>
+        <v>0.3417845695199873</v>
       </c>
       <c r="H10">
-        <v>0.7518250896088148</v>
+        <v>0.2711974599131253</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2258865391454581</v>
+        <v>0.07836775312936872</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3485090662048407</v>
+        <v>0.2908586979943237</v>
       </c>
       <c r="M10">
-        <v>0.361492752882846</v>
+        <v>0.6962934338491564</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.759176799068086</v>
+        <v>1.24211880304415</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.668571470719542</v>
+        <v>4.254908059504658</v>
       </c>
       <c r="C11">
-        <v>0.389563118399991</v>
+        <v>0.6102532088996782</v>
       </c>
       <c r="D11">
-        <v>0.2228050979172664</v>
+        <v>0.1137377205107626</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.217782421092792</v>
+        <v>0.5695872315191863</v>
       </c>
       <c r="G11">
-        <v>0.6310155496214946</v>
+        <v>0.3518977296373009</v>
       </c>
       <c r="H11">
-        <v>0.7475650238031335</v>
+        <v>0.2710795991388864</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2244533778432984</v>
+        <v>0.07590991121608148</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3523505282265802</v>
+        <v>0.3072832280780631</v>
       </c>
       <c r="M11">
-        <v>0.376217852059419</v>
+        <v>0.7458416678667916</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.744453844133204</v>
+        <v>1.263593129115947</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.701955981466256</v>
+        <v>4.3632930235716</v>
       </c>
       <c r="C12">
-        <v>0.3928634797169934</v>
+        <v>0.6204529667195118</v>
       </c>
       <c r="D12">
-        <v>0.2229147322895955</v>
+        <v>0.115058178092788</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.215914654314631</v>
+        <v>0.57393027639894</v>
       </c>
       <c r="G12">
-        <v>0.630021513030897</v>
+        <v>0.3559591428229112</v>
       </c>
       <c r="H12">
-        <v>0.7460092403944429</v>
+        <v>0.2711641285061717</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2239223546319664</v>
+        <v>0.07499961991448068</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.353818987807287</v>
+        <v>0.3135369464818041</v>
       </c>
       <c r="M12">
-        <v>0.3817973581640786</v>
+        <v>0.7646468217386726</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.739159075542602</v>
+        <v>1.272485348410498</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.694766751690736</v>
+        <v>4.339941266489234</v>
       </c>
       <c r="C13">
-        <v>0.3921525744593737</v>
+        <v>0.6182548377894648</v>
       </c>
       <c r="D13">
-        <v>0.2228906745906656</v>
+        <v>0.1147730106907545</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.216311928835715</v>
+        <v>0.5729820429488157</v>
       </c>
       <c r="G13">
-        <v>0.6302322004337668</v>
+        <v>0.3550738497189627</v>
       </c>
       <c r="H13">
-        <v>0.7463417529903325</v>
+        <v>0.2711400515103009</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2240362006661893</v>
+        <v>0.07519474835247841</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3535021180586995</v>
+        <v>0.3121885284713102</v>
       </c>
       <c r="M13">
-        <v>0.3805955647862689</v>
+        <v>0.7605948017185398</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.74028691866306</v>
+        <v>1.270535557459652</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.671318356898894</v>
+        <v>4.263820903826684</v>
       </c>
       <c r="C14">
-        <v>0.3898345896240869</v>
+        <v>0.6110917107246223</v>
       </c>
       <c r="D14">
-        <v>0.2228139165612291</v>
+        <v>0.1138460037752154</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.217626513629213</v>
+        <v>0.5699387605228381</v>
       </c>
       <c r="G14">
-        <v>0.630932239473907</v>
+        <v>0.3522271165625455</v>
       </c>
       <c r="H14">
-        <v>0.7474358780256267</v>
+        <v>0.2710839190883974</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2244094561999379</v>
+        <v>0.07583460776563022</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3524710638819641</v>
+        <v>0.3077970234454028</v>
       </c>
       <c r="M14">
-        <v>0.3766768146700699</v>
+        <v>0.7473878911142364</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.744012617018967</v>
+        <v>1.264309144808436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.656953458436533</v>
+        <v>4.217221023194384</v>
       </c>
       <c r="C15">
-        <v>0.3884150935668345</v>
+        <v>0.6067082090115434</v>
       </c>
       <c r="D15">
-        <v>0.2227682068204402</v>
+        <v>0.1132804627117636</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.218446323644962</v>
+        <v>0.5681120458441669</v>
       </c>
       <c r="G15">
-        <v>0.6313709754027172</v>
+        <v>0.3505141256845263</v>
       </c>
       <c r="H15">
-        <v>0.7481135374920456</v>
+        <v>0.2710665932519021</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.224639606964498</v>
+        <v>0.07622922056839343</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3518413040142292</v>
+        <v>0.305111635778502</v>
       </c>
       <c r="M15">
-        <v>0.3742769032667113</v>
+        <v>0.739303994289088</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.746331252784131</v>
+        <v>1.260595929358288</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.574603671474506</v>
+        <v>3.950546919689032</v>
       </c>
       <c r="C16">
-        <v>0.3802858947844072</v>
+        <v>0.5816485891641321</v>
       </c>
       <c r="D16">
-        <v>0.2225263313038965</v>
+        <v>0.1100737913223568</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.22336791017306</v>
+        <v>0.5582024504192091</v>
       </c>
       <c r="G16">
-        <v>0.634037459309198</v>
+        <v>0.3411551208957633</v>
       </c>
       <c r="H16">
-        <v>0.7521115293675393</v>
+        <v>0.2712228074650227</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.22598183572015</v>
+        <v>0.07853120550412207</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.34825995372573</v>
+        <v>0.2897899174979557</v>
       </c>
       <c r="M16">
-        <v>0.3605309325053554</v>
+        <v>0.6930608862013941</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.760178213035772</v>
+        <v>1.240818863401728</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.524059301582213</v>
+        <v>3.787252254072996</v>
       </c>
       <c r="C17">
-        <v>0.3753038953992416</v>
+        <v>0.5663264174438609</v>
       </c>
       <c r="D17">
-        <v>0.2223958987960017</v>
+        <v>0.1081363991347999</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.226586631394341</v>
+        <v>0.5526063417920639</v>
       </c>
       <c r="G17">
-        <v>0.6358090045470988</v>
+        <v>0.3358077209695693</v>
       </c>
       <c r="H17">
-        <v>0.7546664359591659</v>
+        <v>0.2715403313809901</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2268260821925292</v>
+        <v>0.07997914877490331</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3460876070470391</v>
+        <v>0.2804479480815445</v>
       </c>
       <c r="M17">
-        <v>0.3521047167528479</v>
+        <v>0.664760300599518</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.769172138208035</v>
+        <v>1.229983226971257</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.494978822044857</v>
+        <v>3.69342872541938</v>
       </c>
       <c r="C18">
-        <v>0.3724403058801613</v>
+        <v>0.5575311880247398</v>
       </c>
       <c r="D18">
-        <v>0.2223274911091977</v>
+        <v>0.107032728193488</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.228511256194594</v>
+        <v>0.5495592238825324</v>
       </c>
       <c r="G18">
-        <v>0.6368777858072718</v>
+        <v>0.3328713773292975</v>
       </c>
       <c r="H18">
-        <v>0.7561735373211462</v>
+        <v>0.27180199873672</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2273193330454415</v>
+        <v>0.08082491394407398</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3448472512776846</v>
+        <v>0.2750948214437017</v>
       </c>
       <c r="M18">
-        <v>0.3472606810894163</v>
+        <v>0.6485054468801792</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.774528583017855</v>
+        <v>1.224210777803734</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.485131240314388</v>
+        <v>3.661677678485262</v>
       </c>
       <c r="C19">
-        <v>0.3714710825329917</v>
+        <v>0.5545562095969103</v>
       </c>
       <c r="D19">
-        <v>0.2223054669512621</v>
+        <v>0.1066608496716626</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.22917548977378</v>
+        <v>0.5485564485158108</v>
       </c>
       <c r="G19">
-        <v>0.6372482112699629</v>
+        <v>0.3319006069013213</v>
       </c>
       <c r="H19">
-        <v>0.75669027182375</v>
+        <v>0.2719039439039292</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.227487656008778</v>
+        <v>0.08111348131239637</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.344428858868028</v>
+        <v>0.2732857119049044</v>
       </c>
       <c r="M19">
-        <v>0.3456210142830045</v>
+        <v>0.6430055694198487</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.776373668760939</v>
+        <v>1.222333771287595</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.529440750729009</v>
+        <v>3.804624725349584</v>
       </c>
       <c r="C20">
-        <v>0.3758340405010756</v>
+        <v>0.5679556348873689</v>
       </c>
       <c r="D20">
-        <v>0.2224090994553762</v>
+        <v>0.1083415276647273</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.226236406380693</v>
+        <v>0.5531841642673569</v>
       </c>
       <c r="G20">
-        <v>0.6356152616331912</v>
+        <v>0.336362418539025</v>
       </c>
       <c r="H20">
-        <v>0.7543905717895143</v>
+        <v>0.2714982965681259</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2267354178142202</v>
+        <v>0.07982366858220757</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3463179141289601</v>
+        <v>0.2814403121319344</v>
       </c>
       <c r="M20">
-        <v>0.3530014455801123</v>
+        <v>0.6677705299421604</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.768195738412714</v>
+        <v>1.231088728797118</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.678206155849352</v>
+        <v>4.286173804429666</v>
       </c>
       <c r="C21">
-        <v>0.3905153682950413</v>
+        <v>0.6131948295104053</v>
       </c>
       <c r="D21">
-        <v>0.2228361900197626</v>
+        <v>0.1141178118834745</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.217237347851693</v>
+        <v>0.5708248205900901</v>
       </c>
       <c r="G21">
-        <v>0.6307245489005737</v>
+        <v>0.3530568376579311</v>
       </c>
       <c r="H21">
-        <v>0.7471129489480575</v>
+        <v>0.2710968374838245</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2242995050687497</v>
+        <v>0.07564610581603048</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3527735365790647</v>
+        <v>0.3090859638671333</v>
       </c>
       <c r="M21">
-        <v>0.377827756303617</v>
+        <v>0.7512658767873219</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.742910674071936</v>
+        <v>1.266116920546381</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.775341630647233</v>
+        <v>4.602028075884732</v>
       </c>
       <c r="C22">
-        <v>0.4001257628733583</v>
+        <v>0.6429426755306622</v>
       </c>
       <c r="D22">
-        <v>0.2231738518958082</v>
+        <v>0.1179941049445787</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.212008881156024</v>
+        <v>0.584011059236424</v>
       </c>
       <c r="G22">
-        <v>0.627973022630556</v>
+        <v>0.3653274308447152</v>
       </c>
       <c r="H22">
-        <v>0.7426912321786148</v>
+        <v>0.2715912452762979</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2227755883878295</v>
+        <v>0.07303527493826856</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3570729223556981</v>
+        <v>0.327354365062746</v>
       </c>
       <c r="M22">
-        <v>0.3940730173904328</v>
+        <v>0.8060850137202209</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.72802050445793</v>
+        <v>1.293468811958348</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.723507625034927</v>
+        <v>4.43333425064867</v>
       </c>
       <c r="C23">
-        <v>0.3949952032470776</v>
+        <v>0.6270478735699783</v>
       </c>
       <c r="D23">
-        <v>0.2229882969876087</v>
+        <v>0.115915687798207</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.214739659047268</v>
+        <v>0.5768152079415785</v>
       </c>
       <c r="G23">
-        <v>0.6294008103695461</v>
+        <v>0.3586479627535226</v>
       </c>
       <c r="H23">
-        <v>0.745020570540774</v>
+        <v>0.2712554544490615</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2235827076644412</v>
+        <v>0.07441758586898395</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3547709612455634</v>
+        <v>0.3175847740292568</v>
       </c>
       <c r="M23">
-        <v>0.3854009187726035</v>
+        <v>0.7768017838329584</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.735817955674719</v>
+        <v>1.278444286988019</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.527007865470011</v>
+        <v>3.796770457023342</v>
       </c>
       <c r="C24">
-        <v>0.375594359923582</v>
+        <v>0.5672190232948253</v>
       </c>
       <c r="D24">
-        <v>0.2224031109389699</v>
+        <v>0.1082487574724098</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.226394512173705</v>
+        <v>0.5529224021135448</v>
       </c>
       <c r="G24">
-        <v>0.6357026961471206</v>
+        <v>0.3361112113804978</v>
       </c>
       <c r="H24">
-        <v>0.754515170828185</v>
+        <v>0.2715170546439509</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2267763826249567</v>
+        <v>0.07989391972347448</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3462137656386375</v>
+        <v>0.2809916094542331</v>
       </c>
       <c r="M24">
-        <v>0.3525960334910749</v>
+        <v>0.6664095573830409</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.76863659028561</v>
+        <v>1.230587511585384</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.314726232788644</v>
+        <v>3.113801908358937</v>
       </c>
       <c r="C25">
-        <v>0.3547420373204204</v>
+        <v>0.5033478402934577</v>
       </c>
       <c r="D25">
-        <v>0.2220249536966818</v>
+        <v>0.1003833166321044</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.241768484169654</v>
+        <v>0.5336457562052601</v>
       </c>
       <c r="G25">
-        <v>0.6444049468326227</v>
+        <v>0.3170684689159486</v>
       </c>
       <c r="H25">
-        <v>0.7661937021451166</v>
+        <v>0.2747940996025946</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2305143296117862</v>
+        <v>0.08629389070546978</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3373326736925151</v>
+        <v>0.2422787291791479</v>
       </c>
       <c r="M25">
-        <v>0.3173075963218679</v>
+        <v>0.5481856989945371</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.811046364548801</v>
+        <v>1.196365606515656</v>
       </c>
     </row>
   </sheetData>
